--- a/com.comcastCRM.MyProject.vTigar/testData/TestScript.xlsx
+++ b/com.comcastCRM.MyProject.vTigar/testData/TestScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Vendor" sheetId="6" r:id="rId6"/>
     <sheet name="Sales Order" sheetId="7" r:id="rId7"/>
     <sheet name="Price Book" sheetId="8" r:id="rId8"/>
+    <sheet name="Invoice" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
   <si>
     <t>TC_ID</t>
   </si>
@@ -357,6 +358,9 @@
     <t>9876565678</t>
   </si>
   <si>
+    <t>Customer No</t>
+  </si>
+  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -366,19 +370,34 @@
     <t>Shipping Address</t>
   </si>
   <si>
+    <t>Product Quntity</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>Pending Bills</t>
   </si>
   <si>
     <t>Rasta peth Pune</t>
   </si>
   <si>
-    <t>RajajiNagar Bengluru</t>
+    <t>Rajajinagar Bengluru</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>Price Book Name</t>
   </si>
   <si>
     <t>Adjust price</t>
+  </si>
+  <si>
+    <t>Customer No.</t>
+  </si>
+  <si>
+    <t>Pending Bill Payment</t>
   </si>
 </sst>
 </file>
@@ -2388,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2519,22 +2538,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
+    <col min="5" max="6" width="20.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,23 +2568,35 @@
         <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
+      <c r="B2" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2593,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2601,7 +2633,71 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="16.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="20.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/com.comcastCRM.MyProject.vTigar/testData/TestScript.xlsx
+++ b/com.comcastCRM.MyProject.vTigar/testData/TestScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7170" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Sales Order" sheetId="7" r:id="rId7"/>
     <sheet name="Price Book" sheetId="8" r:id="rId8"/>
     <sheet name="Invoice" sheetId="9" r:id="rId9"/>
+    <sheet name="Create Contract" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
   <si>
     <t>TC_ID</t>
   </si>
@@ -398,6 +399,27 @@
   </si>
   <si>
     <t>Pending Bill Payment</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Organisation Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Sandisk_</t>
+  </si>
+  <si>
+    <t>John_</t>
+  </si>
+  <si>
+    <t>D'souza_</t>
   </si>
 </sst>
 </file>
@@ -1760,6 +1782,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="5" width="21.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="16.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="16.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2540,7 +2645,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2645,22 +2750,22 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="16.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="20.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="16.2857142857143" customWidth="1"/>
+    <col min="5" max="6" width="20.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,10 +2782,13 @@
         <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2697,6 +2805,9 @@
         <v>115</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
